--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3638.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3638.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.27587424383465</v>
+        <v>1.053638458251953</v>
       </c>
       <c r="B1">
-        <v>1.711762870211845</v>
+        <v>1.574147582054138</v>
       </c>
       <c r="C1">
-        <v>1.91030572301762</v>
+        <v>2.800167322158813</v>
       </c>
       <c r="D1">
-        <v>2.146159365254396</v>
+        <v>1.534817695617676</v>
       </c>
       <c r="E1">
-        <v>2.569465982754921</v>
+        <v>0.8238430023193359</v>
       </c>
     </row>
   </sheetData>
